--- a/RELRADResultsSimpleTest.xlsx
+++ b/RELRADResultsSimpleTest.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Git Repo/Simple-System-for-Power-System-Reliability-Calculations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_3CA4650760119227C61D50C5D674E9AEA55BFC64" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="28770" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Load Points" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -73,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +143,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +195,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,6 +229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,9 +264,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -424,14 +440,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:M6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -477,10 +495,10 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.535</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D2">
-        <v>0.8668</v>
+        <v>0.86680000000000001</v>
       </c>
       <c r="E2">
         <v>210</v>
@@ -492,25 +510,25 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.9545454545454545</v>
+        <v>0.95454545454545447</v>
       </c>
       <c r="I2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J2">
-        <v>462.0000000000001</v>
+        <v>462.00000000000011</v>
       </c>
       <c r="K2">
         <v>441</v>
       </c>
       <c r="L2">
-        <v>200.4545454545454</v>
+        <v>200.45454545454541</v>
       </c>
       <c r="M2">
-        <v>1.1235</v>
+        <v>1.1234999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -518,10 +536,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.535</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D3">
-        <v>0.8668</v>
+        <v>0.86680000000000001</v>
       </c>
       <c r="E3">
         <v>210</v>
@@ -533,25 +551,25 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.068181818181818</v>
+        <v>1.0681818181818179</v>
       </c>
       <c r="I3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J3">
-        <v>462.0000000000001</v>
+        <v>462.00000000000011</v>
       </c>
       <c r="K3">
-        <v>493.5000000000001</v>
+        <v>493.50000000000011</v>
       </c>
       <c r="L3">
-        <v>224.3181818181818</v>
+        <v>224.31818181818181</v>
       </c>
       <c r="M3">
         <v>1.25725</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -559,10 +577,10 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.535</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D4">
-        <v>0.8668</v>
+        <v>0.86680000000000001</v>
       </c>
       <c r="E4">
         <v>210</v>
@@ -577,22 +595,22 @@
         <v>1.25</v>
       </c>
       <c r="I4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J4">
-        <v>462.0000000000001</v>
+        <v>462.00000000000011</v>
       </c>
       <c r="K4">
-        <v>577.5000000000001</v>
+        <v>577.50000000000011</v>
       </c>
       <c r="L4">
         <v>262.5</v>
       </c>
       <c r="M4">
-        <v>1.47125</v>
+        <v>1.4712499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -600,10 +618,10 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>0.5659999999999999</v>
+        <v>0.56599999999999995</v>
       </c>
       <c r="D5">
-        <v>0.9167</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -615,48 +633,48 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.9545454545454545</v>
+        <v>0.95454545454545447</v>
       </c>
       <c r="I5">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J5">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K5">
         <v>2.1</v>
       </c>
       <c r="L5">
-        <v>0.9545454545454545</v>
+        <v>0.95454545454545447</v>
       </c>
       <c r="M5">
-        <v>1.1886</v>
+        <v>1.1886000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6">
-        <v>2.171</v>
+        <v>2.1709999999999998</v>
       </c>
       <c r="D6">
-        <v>3.5171</v>
+        <v>3.5171000000000001</v>
       </c>
       <c r="E6">
         <v>631</v>
       </c>
       <c r="J6">
-        <v>2.200000000000001</v>
+        <v>2.2000000000000011</v>
       </c>
       <c r="K6">
-        <v>2.399524564183835</v>
+        <v>2.3995245641838352</v>
       </c>
       <c r="L6">
-        <v>1.090692983719925</v>
+        <v>1.0906929837199251</v>
       </c>
       <c r="M6">
-        <v>5.040600000000001</v>
+        <v>5.0406000000000013</v>
       </c>
     </row>
   </sheetData>

--- a/RELRADResultsSimpleTest.xlsx
+++ b/RELRADResultsSimpleTest.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Git Repo/Simple-System-for-Power-System-Reliability-Calculations/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_3CA4650760119227C61D50C5D674E9AEA55BFC64" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="28770" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Load Points" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Customer type</t>
   </si>
@@ -74,13 +68,16 @@
   </si>
   <si>
     <t>residential</t>
+  </si>
+  <si>
+    <t>industrial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,21 +140,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -229,7 +218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -264,10 +252,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -440,16 +427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:M6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -495,10 +480,10 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>0.53500000000000003</v>
+        <v>0.535</v>
       </c>
       <c r="D2">
-        <v>0.86680000000000001</v>
+        <v>0.8668</v>
       </c>
       <c r="E2">
         <v>210</v>
@@ -510,25 +495,25 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.95454545454545447</v>
+        <v>0.9545454545454545</v>
       </c>
       <c r="I2">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J2">
-        <v>462.00000000000011</v>
+        <v>462.0000000000001</v>
       </c>
       <c r="K2">
         <v>441</v>
       </c>
       <c r="L2">
-        <v>200.45454545454541</v>
+        <v>200.4545454545454</v>
       </c>
       <c r="M2">
-        <v>1.1234999999999999</v>
+        <v>1.1235</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -536,40 +521,40 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.53500000000000003</v>
+        <v>0.535</v>
       </c>
       <c r="D3">
-        <v>0.86680000000000001</v>
+        <v>0.8668</v>
       </c>
       <c r="E3">
         <v>210</v>
       </c>
       <c r="F3">
-        <v>2.350000000000001</v>
+        <v>3.050000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.0681818181818179</v>
+        <v>1.386363636363636</v>
       </c>
       <c r="I3">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J3">
-        <v>462.00000000000011</v>
+        <v>462.0000000000001</v>
       </c>
       <c r="K3">
-        <v>493.50000000000011</v>
+        <v>640.5000000000001</v>
       </c>
       <c r="L3">
-        <v>224.31818181818181</v>
+        <v>291.1363636363637</v>
       </c>
       <c r="M3">
-        <v>1.25725</v>
+        <v>1.63175</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -577,104 +562,104 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.53500000000000003</v>
+        <v>0.535</v>
       </c>
       <c r="D4">
-        <v>0.86680000000000001</v>
+        <v>0.8668</v>
       </c>
       <c r="E4">
         <v>210</v>
       </c>
       <c r="F4">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.25</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="I4">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J4">
-        <v>462.00000000000011</v>
+        <v>462.0000000000001</v>
       </c>
       <c r="K4">
-        <v>577.50000000000011</v>
+        <v>798</v>
       </c>
       <c r="L4">
-        <v>262.5</v>
+        <v>362.7272727272727</v>
       </c>
       <c r="M4">
-        <v>1.4712499999999999</v>
+        <v>2.033</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.56599999999999995</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D5">
-        <v>0.91669999999999996</v>
+        <v>0.9167</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2.1</v>
+        <v>4.200000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.95454545454545447</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="I5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>4.200000000000001</v>
       </c>
       <c r="L5">
-        <v>0.95454545454545447</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="M5">
-        <v>1.1886000000000001</v>
+        <v>2.3772</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6">
-        <v>2.1709999999999998</v>
+        <v>2.171</v>
       </c>
       <c r="D6">
-        <v>3.5171000000000001</v>
+        <v>3.5171</v>
       </c>
       <c r="E6">
         <v>631</v>
       </c>
       <c r="J6">
-        <v>2.2000000000000011</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="K6">
-        <v>2.3995245641838352</v>
+        <v>2.985261489698891</v>
       </c>
       <c r="L6">
-        <v>1.0906929837199251</v>
+        <v>1.356937040772223</v>
       </c>
       <c r="M6">
-        <v>5.0406000000000013</v>
+        <v>7.165450000000002</v>
       </c>
     </row>
   </sheetData>
